--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3352,28 +3352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1121607685771</v>
+        <v>173.2703620362986</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.4441279095316</v>
+        <v>237.0761534868321</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.8866532459485</v>
+        <v>214.4499381365887</v>
       </c>
       <c r="AD2" t="n">
-        <v>142112.1607685771</v>
+        <v>173270.3620362986</v>
       </c>
       <c r="AE2" t="n">
-        <v>194444.1279095316</v>
+        <v>237076.1534868321</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.363225427086447e-06</v>
+        <v>5.685699454958716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.026234567901234</v>
       </c>
       <c r="AH2" t="n">
-        <v>175886.6532459485</v>
+        <v>214449.9381365887</v>
       </c>
     </row>
     <row r="3">
@@ -3458,28 +3458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.22938272217783</v>
+        <v>114.9730997853186</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9287985474021</v>
+        <v>157.311267381386</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.6240149667774</v>
+        <v>142.2977008103001</v>
       </c>
       <c r="AD3" t="n">
-        <v>94229.38272217783</v>
+        <v>114973.0997853186</v>
       </c>
       <c r="AE3" t="n">
-        <v>128928.7985474021</v>
+        <v>157311.267381386</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.50413501621223e-06</v>
+        <v>7.614463722975444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.498456790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>116624.0149667774</v>
+        <v>142297.7008103001</v>
       </c>
     </row>
     <row r="4">
@@ -3564,28 +3564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.80975673593008</v>
+        <v>108.5534737990709</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.145183059112</v>
+        <v>148.5276518930959</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.6786954128052</v>
+        <v>134.3523812563279</v>
       </c>
       <c r="AD4" t="n">
-        <v>87809.75673593007</v>
+        <v>108553.4737990709</v>
       </c>
       <c r="AE4" t="n">
-        <v>120145.183059112</v>
+        <v>148527.6518930959</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.950541364378734e-06</v>
+        <v>8.369135803538054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.093364197530864</v>
       </c>
       <c r="AH4" t="n">
-        <v>108678.6954128052</v>
+        <v>134352.3812563279</v>
       </c>
     </row>
     <row r="5">
@@ -3670,28 +3670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.72221771591082</v>
+        <v>95.55118612507218</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.2382347904586</v>
+        <v>130.7373482770918</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.48076115434664</v>
+        <v>118.2599592485816</v>
       </c>
       <c r="AD5" t="n">
-        <v>74722.21771591081</v>
+        <v>95551.18612507218</v>
       </c>
       <c r="AE5" t="n">
-        <v>102238.2347904586</v>
+        <v>130737.3482770918</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.144229201089096e-06</v>
+        <v>8.696574701551574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.939043209876544</v>
       </c>
       <c r="AH5" t="n">
-        <v>92480.76115434663</v>
+        <v>118259.9592485816</v>
       </c>
     </row>
     <row r="6">
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.91983039114065</v>
+        <v>93.74879880030201</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.77212893699247</v>
+        <v>128.2712424236256</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.25001698233324</v>
+        <v>116.0292150765682</v>
       </c>
       <c r="AD6" t="n">
-        <v>72919.83039114065</v>
+        <v>93748.79880030201</v>
       </c>
       <c r="AE6" t="n">
-        <v>99772.12893699248</v>
+        <v>128271.2424236256</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.281774874718282e-06</v>
+        <v>8.929102487315515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.834876543209876</v>
       </c>
       <c r="AH6" t="n">
-        <v>90250.01698233324</v>
+        <v>116029.2150765682</v>
       </c>
     </row>
     <row r="7">
@@ -3882,28 +3882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.68013487627928</v>
+        <v>92.50910328544064</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.07592284205381</v>
+        <v>126.575036328687</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.71569441645477</v>
+        <v>114.4948925106897</v>
       </c>
       <c r="AD7" t="n">
-        <v>71680.13487627928</v>
+        <v>92509.10328544065</v>
       </c>
       <c r="AE7" t="n">
-        <v>98075.92284205381</v>
+        <v>126575.036328687</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.355825810120019e-06</v>
+        <v>9.054289267738252e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.784722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>88715.69441645476</v>
+        <v>114494.8925106897</v>
       </c>
     </row>
     <row r="8">
@@ -3988,28 +3988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.44897213765906</v>
+        <v>91.27794054682043</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.39139166800783</v>
+        <v>124.890505154641</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.19193253340485</v>
+        <v>112.9711306276398</v>
       </c>
       <c r="AD8" t="n">
-        <v>70448.97213765906</v>
+        <v>91277.94054682043</v>
       </c>
       <c r="AE8" t="n">
-        <v>96391.39166800783</v>
+        <v>124890.505154641</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.433080367549775e-06</v>
+        <v>9.184891930150911e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.730709876543211</v>
       </c>
       <c r="AH8" t="n">
-        <v>87191.93253340485</v>
+        <v>112971.1306276398</v>
       </c>
     </row>
     <row r="9">
@@ -4094,28 +4094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>69.129413851899</v>
+        <v>89.95838226106038</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.58591380662887</v>
+        <v>123.085027293262</v>
       </c>
       <c r="AC9" t="n">
-        <v>85.55876694511122</v>
+        <v>111.3379650393462</v>
       </c>
       <c r="AD9" t="n">
-        <v>69129.41385189901</v>
+        <v>89958.38226106038</v>
       </c>
       <c r="AE9" t="n">
-        <v>94585.91380662887</v>
+        <v>123085.027293262</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.517424908156294e-06</v>
+        <v>9.327480560901916e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.67283950617284</v>
       </c>
       <c r="AH9" t="n">
-        <v>85558.76694511122</v>
+        <v>111337.9650393462</v>
       </c>
     </row>
     <row r="10">
@@ -4200,28 +4200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>68.29295448245037</v>
+        <v>89.12192289161173</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.44143319536681</v>
+        <v>121.940546682</v>
       </c>
       <c r="AC10" t="n">
-        <v>84.52351395709903</v>
+        <v>110.302712051334</v>
       </c>
       <c r="AD10" t="n">
-        <v>68292.95448245037</v>
+        <v>89121.92289161173</v>
       </c>
       <c r="AE10" t="n">
-        <v>93441.43319536682</v>
+        <v>121940.546682</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.539587670382914e-06</v>
+        <v>9.364947810078087e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>84523.51395709903</v>
+        <v>110302.712051334</v>
       </c>
     </row>
     <row r="11">
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>68.34711685883414</v>
+        <v>89.1760852679955</v>
       </c>
       <c r="AB11" t="n">
-        <v>93.51554054821047</v>
+        <v>122.0146540348436</v>
       </c>
       <c r="AC11" t="n">
-        <v>84.59054860819762</v>
+        <v>110.3697467024326</v>
       </c>
       <c r="AD11" t="n">
-        <v>68347.11685883414</v>
+        <v>89176.0852679955</v>
       </c>
       <c r="AE11" t="n">
-        <v>93515.54054821047</v>
+        <v>122014.6540348436</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.542843810804834e-06</v>
+        <v>9.370452477018659e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>84590.54860819763</v>
+        <v>110369.7467024326</v>
       </c>
     </row>
     <row r="12">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>68.38318760638886</v>
+        <v>89.21215601555024</v>
       </c>
       <c r="AB12" t="n">
-        <v>93.5648941363439</v>
+        <v>122.064007622977</v>
       </c>
       <c r="AC12" t="n">
-        <v>84.63519195914782</v>
+        <v>110.4143900533828</v>
       </c>
       <c r="AD12" t="n">
-        <v>68383.18760638886</v>
+        <v>89212.15601555024</v>
       </c>
       <c r="AE12" t="n">
-        <v>93564.89413634389</v>
+        <v>122064.007622977</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.540427964685344e-06</v>
+        <v>9.366368369288555e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>84635.19195914782</v>
+        <v>110414.3900533828</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.5995989634506</v>
+        <v>141.7007102944384</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.695494728556</v>
+        <v>193.8811632189015</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.1224510211772</v>
+        <v>175.377417115266</v>
       </c>
       <c r="AD2" t="n">
-        <v>111599.5989634506</v>
+        <v>141700.7102944384</v>
       </c>
       <c r="AE2" t="n">
-        <v>152695.494728556</v>
+        <v>193881.1632189016</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.967088952590085e-06</v>
+        <v>6.870168973981037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.285493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>138122.4510211772</v>
+        <v>175377.417115266</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.31018832819569</v>
+        <v>104.4060726698951</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.3569191735904</v>
+        <v>142.8529946977361</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.3474167121457</v>
+        <v>129.21930537926</v>
       </c>
       <c r="AD3" t="n">
-        <v>84310.1883281957</v>
+        <v>104406.0726698951</v>
       </c>
       <c r="AE3" t="n">
-        <v>115356.9191735904</v>
+        <v>142852.9946977361</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.021842714290243e-06</v>
+        <v>8.696782053602339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.174382716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>104347.4167121457</v>
+        <v>129219.30537926</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.99990664924216</v>
+        <v>90.18104233696215</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.77696045538501</v>
+        <v>123.3896806321799</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.63614177335494</v>
+        <v>111.6135426911815</v>
       </c>
       <c r="AD4" t="n">
-        <v>69999.90664924217</v>
+        <v>90181.04233696216</v>
       </c>
       <c r="AE4" t="n">
-        <v>95776.96045538501</v>
+        <v>123389.6806321799</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.377538236998132e-06</v>
+        <v>9.31277236122986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.896604938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>86636.14177335493</v>
+        <v>111613.5426911815</v>
       </c>
     </row>
     <row r="5">
@@ -5027,28 +5027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.53163538549202</v>
+        <v>87.71277107321204</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.39976281988085</v>
+        <v>120.0124829966758</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.58125914025557</v>
+        <v>108.5586600580821</v>
       </c>
       <c r="AD5" t="n">
-        <v>67531.63538549203</v>
+        <v>87712.77107321203</v>
       </c>
       <c r="AE5" t="n">
-        <v>92399.76281988085</v>
+        <v>120012.4829966758</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.592194264219587e-06</v>
+        <v>9.684511738874023e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>83581.25914025557</v>
+        <v>108558.6600580821</v>
       </c>
     </row>
     <row r="6">
@@ -5133,28 +5133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.0780811457736</v>
+        <v>86.25921683349358</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.41094578281185</v>
+        <v>118.0236659596068</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.78225200988155</v>
+        <v>106.7596529277081</v>
       </c>
       <c r="AD6" t="n">
-        <v>66078.0811457736</v>
+        <v>86259.21683349358</v>
       </c>
       <c r="AE6" t="n">
-        <v>90410.94578281185</v>
+        <v>118023.6659596068</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.697430590397253e-06</v>
+        <v>9.866759062209061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>81782.25200988154</v>
+        <v>106759.6529277081</v>
       </c>
     </row>
     <row r="7">
@@ -5239,28 +5239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.60844595987834</v>
+        <v>84.78958164759834</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.40012608574243</v>
+        <v>116.0128462625374</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.96334212249663</v>
+        <v>104.9407430403232</v>
       </c>
       <c r="AD7" t="n">
-        <v>64608.44595987834</v>
+        <v>84789.58164759834</v>
       </c>
       <c r="AE7" t="n">
-        <v>88400.12608574243</v>
+        <v>116012.8462625374</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.773437622055774e-06</v>
+        <v>9.998387356140769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.630401234567902</v>
       </c>
       <c r="AH7" t="n">
-        <v>79963.34212249663</v>
+        <v>104940.7430403232</v>
       </c>
     </row>
     <row r="8">
@@ -5345,28 +5345,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.7628690963668</v>
+        <v>83.94400478408679</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.24317051686809</v>
+        <v>114.855890693663</v>
       </c>
       <c r="AC8" t="n">
-        <v>78.91680476931795</v>
+        <v>103.8942056871445</v>
       </c>
       <c r="AD8" t="n">
-        <v>63762.8690963668</v>
+        <v>83944.00478408679</v>
       </c>
       <c r="AE8" t="n">
-        <v>87243.17051686809</v>
+        <v>114855.890693663</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.845043960673308e-06</v>
+        <v>1.012239456943741e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.587962962962964</v>
       </c>
       <c r="AH8" t="n">
-        <v>78916.80476931795</v>
+        <v>103894.2056871445</v>
       </c>
     </row>
     <row r="9">
@@ -5451,28 +5451,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>63.86059918244035</v>
+        <v>84.04173487016034</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.37688913218096</v>
+        <v>114.9896093089759</v>
       </c>
       <c r="AC9" t="n">
-        <v>79.03776146766066</v>
+        <v>104.0151623854872</v>
       </c>
       <c r="AD9" t="n">
-        <v>63860.59918244035</v>
+        <v>84041.73487016033</v>
       </c>
       <c r="AE9" t="n">
-        <v>87376.88913218096</v>
+        <v>114989.6093089759</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.840860585807185e-06</v>
+        <v>1.011514983846332e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.587962962962964</v>
       </c>
       <c r="AH9" t="n">
-        <v>79037.76146766066</v>
+        <v>104015.1623854872</v>
       </c>
     </row>
   </sheetData>
@@ -5748,28 +5748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.73611033808456</v>
+        <v>85.91152546708705</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.36533741884477</v>
+        <v>117.5479392930291</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.6953824090684</v>
+        <v>106.3293289465019</v>
       </c>
       <c r="AD2" t="n">
-        <v>58736.11033808456</v>
+        <v>85911.52546708705</v>
       </c>
       <c r="AE2" t="n">
-        <v>80365.33741884478</v>
+        <v>117547.9392930291</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.874269792898252e-06</v>
+        <v>1.111538253063276e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.981481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>72695.38240906841</v>
+        <v>106329.3289465019</v>
       </c>
     </row>
     <row r="3">
@@ -5854,28 +5854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.58537504058779</v>
+        <v>71.81610626601828</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.3178741504093</v>
+        <v>98.26196489612897</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.32051914379335</v>
+        <v>88.88398087800074</v>
       </c>
       <c r="AD3" t="n">
-        <v>53585.37504058779</v>
+        <v>71816.10626601828</v>
       </c>
       <c r="AE3" t="n">
-        <v>73317.87415040929</v>
+        <v>98261.96489612898</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.579203992634268e-06</v>
+        <v>1.244926973112604e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.553240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>66320.51914379335</v>
+        <v>88883.98087800074</v>
       </c>
     </row>
     <row r="4">
@@ -5960,28 +5960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.38214564325052</v>
+        <v>71.61287686868101</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.03980672312434</v>
+        <v>97.98389746884403</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.0689900814983</v>
+        <v>88.63245181570569</v>
       </c>
       <c r="AD4" t="n">
-        <v>53382.14564325052</v>
+        <v>71612.87686868101</v>
       </c>
       <c r="AE4" t="n">
-        <v>73039.80672312435</v>
+        <v>97983.89746884404</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.613517095235799e-06</v>
+        <v>1.251419750507507e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.537808641975309</v>
       </c>
       <c r="AH4" t="n">
-        <v>66068.9900814983</v>
+        <v>88632.45181570569</v>
       </c>
     </row>
   </sheetData>
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.32285319611307</v>
+        <v>97.23086340803717</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.1647831032953</v>
+        <v>133.0355568377752</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.93712661066174</v>
+        <v>120.3388300097901</v>
       </c>
       <c r="AD2" t="n">
-        <v>78322.85319611308</v>
+        <v>97230.86340803717</v>
       </c>
       <c r="AE2" t="n">
-        <v>107164.7831032953</v>
+        <v>133035.5568377752</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.110224568721829e-06</v>
+        <v>9.309719352314332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.378858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>96937.12661066174</v>
+        <v>120338.8300097901</v>
       </c>
     </row>
     <row r="3">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.79570424544281</v>
+        <v>79.78896580338748</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.18336466576132</v>
+        <v>109.1707830528904</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.24446109066621</v>
+        <v>98.7516767405068</v>
       </c>
       <c r="AD3" t="n">
-        <v>60795.70424544282</v>
+        <v>79788.96580338749</v>
       </c>
       <c r="AE3" t="n">
-        <v>83183.36466576131</v>
+        <v>109170.7830528904</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.955007697784863e-06</v>
+        <v>1.084873074787692e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.757716049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>75244.46109066621</v>
+        <v>98751.67674050679</v>
       </c>
     </row>
     <row r="4">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.04037674876789</v>
+        <v>77.03363830671256</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.41340402834246</v>
+        <v>105.4008224154716</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.83430020530842</v>
+        <v>95.341515855149</v>
       </c>
       <c r="AD4" t="n">
-        <v>58040.37674876789</v>
+        <v>77033.63830671256</v>
       </c>
       <c r="AE4" t="n">
-        <v>79413.40402834245</v>
+        <v>105400.8224154716</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.244992295156494e-06</v>
+        <v>1.137701970694687e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.584104938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>71834.30020530842</v>
+        <v>95341.515855149</v>
       </c>
     </row>
     <row r="5">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.05798076940102</v>
+        <v>76.05124232734568</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.06924650912157</v>
+        <v>104.0566648962507</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.61842719318462</v>
+        <v>94.1256428430252</v>
       </c>
       <c r="AD5" t="n">
-        <v>57057.98076940102</v>
+        <v>76051.24232734568</v>
       </c>
       <c r="AE5" t="n">
-        <v>78069.24650912157</v>
+        <v>104056.6648962507</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.348458799498692e-06</v>
+        <v>1.156551320754303e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.526234567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>70618.42719318462</v>
+        <v>94125.6428430252</v>
       </c>
     </row>
   </sheetData>
@@ -6872,28 +6872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.91154857774158</v>
+        <v>69.51684851187599</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.02767093993236</v>
+        <v>95.11601900081996</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.2488897134032</v>
+        <v>86.03827964357622</v>
       </c>
       <c r="AD2" t="n">
-        <v>51911.54857774158</v>
+        <v>69516.84851187599</v>
       </c>
       <c r="AE2" t="n">
-        <v>71027.67093993236</v>
+        <v>95116.01900081996</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.518116132459938e-06</v>
+        <v>1.277340747955528e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.726851851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>64248.88971340321</v>
+        <v>86038.27964357621</v>
       </c>
     </row>
     <row r="3">
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.33974602616374</v>
+        <v>67.94504596029815</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.87706134583006</v>
+        <v>92.96540940671765</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.30353128056181</v>
+        <v>84.09292121073481</v>
       </c>
       <c r="AD3" t="n">
-        <v>50339.74602616374</v>
+        <v>67945.04596029814</v>
       </c>
       <c r="AE3" t="n">
-        <v>68877.06134583005</v>
+        <v>92965.40940671765</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.793138410278249e-06</v>
+        <v>1.331236253177263e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>62303.53128056182</v>
+        <v>84092.92121073481</v>
       </c>
     </row>
   </sheetData>
@@ -7275,28 +7275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.1675236091123</v>
+        <v>146.524050878568</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.9455307513598</v>
+        <v>200.4806705968729</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.7759923779473</v>
+        <v>181.3470767715526</v>
       </c>
       <c r="AD2" t="n">
-        <v>116167.5236091123</v>
+        <v>146524.050878568</v>
       </c>
       <c r="AE2" t="n">
-        <v>158945.5307513598</v>
+        <v>200480.6705968729</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.808101988471386e-06</v>
+        <v>6.551767906606075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.455246913580248</v>
       </c>
       <c r="AH2" t="n">
-        <v>143775.9923779473</v>
+        <v>181347.0767715526</v>
       </c>
     </row>
     <row r="3">
@@ -7381,28 +7381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.86200177805699</v>
+        <v>107.1281634120683</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8484229137529</v>
+        <v>146.5774793413436</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.5056962357044</v>
+        <v>132.5883304358298</v>
       </c>
       <c r="AD3" t="n">
-        <v>86862.00177805699</v>
+        <v>107128.1634120683</v>
       </c>
       <c r="AE3" t="n">
-        <v>118848.4229137529</v>
+        <v>146577.4793413436</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.873033122251156e-06</v>
+        <v>8.383961909331468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.263117283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>107505.6962357044</v>
+        <v>132588.3304358298</v>
       </c>
     </row>
     <row r="4">
@@ -7487,28 +7487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.74496303291112</v>
+        <v>92.09637601294301</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.16462358597389</v>
+        <v>126.0103246662138</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.79592968586739</v>
+        <v>113.984076136705</v>
       </c>
       <c r="AD4" t="n">
-        <v>71744.96303291111</v>
+        <v>92096.37601294302</v>
       </c>
       <c r="AE4" t="n">
-        <v>98164.62358597388</v>
+        <v>126010.3246662138</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.267529831751352e-06</v>
+        <v>9.062686084364025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.942901234567902</v>
       </c>
       <c r="AH4" t="n">
-        <v>88795.92968586739</v>
+        <v>113984.076136705</v>
       </c>
     </row>
     <row r="5">
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.5603359372902</v>
+        <v>89.91174891732211</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.17552041480148</v>
+        <v>123.0212214950414</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.09210232611809</v>
+        <v>111.2802487769557</v>
       </c>
       <c r="AD5" t="n">
-        <v>69560.33593729021</v>
+        <v>89911.74891732211</v>
       </c>
       <c r="AE5" t="n">
-        <v>95175.52041480149</v>
+        <v>123021.2214950414</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.456459673929076e-06</v>
+        <v>9.387736327326934e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>86092.1023261181</v>
+        <v>111280.2487769557</v>
       </c>
     </row>
     <row r="6">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.59846245166327</v>
+        <v>87.94987543169516</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.49119856001838</v>
+        <v>120.3368996402583</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.66396838168525</v>
+        <v>108.8521148325228</v>
       </c>
       <c r="AD6" t="n">
-        <v>67598.46245166326</v>
+        <v>87949.87543169517</v>
       </c>
       <c r="AE6" t="n">
-        <v>92491.19856001837</v>
+        <v>120336.8996402583</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.609154183024552e-06</v>
+        <v>9.650444360681969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>83663.96838168525</v>
+        <v>108852.1148325228</v>
       </c>
     </row>
     <row r="7">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.45671517705233</v>
+        <v>86.80812815708424</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.9290095685617</v>
+        <v>118.7747106488016</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.25087251502669</v>
+        <v>107.4390189658643</v>
       </c>
       <c r="AD7" t="n">
-        <v>66456.71517705233</v>
+        <v>86808.12815708424</v>
       </c>
       <c r="AE7" t="n">
-        <v>90929.0095685617</v>
+        <v>118774.7106488016</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.681140275641143e-06</v>
+        <v>9.774295080215001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>82250.87251502668</v>
+        <v>107439.0189658643</v>
       </c>
     </row>
     <row r="8">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.02925158009775</v>
+        <v>85.38066456012965</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.97589089996006</v>
+        <v>116.8215919802</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.48415675093649</v>
+        <v>105.6723032017741</v>
       </c>
       <c r="AD8" t="n">
-        <v>65029.25158009775</v>
+        <v>85380.66456012965</v>
       </c>
       <c r="AE8" t="n">
-        <v>88975.89089996007</v>
+        <v>116821.5919802</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.76631753706182e-06</v>
+        <v>9.920840957777646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.603395061728395</v>
       </c>
       <c r="AH8" t="n">
-        <v>80484.1567509365</v>
+        <v>105672.3032017741</v>
       </c>
     </row>
     <row r="9">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>64.91144187321068</v>
+        <v>85.26285485324256</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.81469846159979</v>
+        <v>116.6603995418397</v>
       </c>
       <c r="AC9" t="n">
-        <v>80.33834829265828</v>
+        <v>105.5264947434959</v>
       </c>
       <c r="AD9" t="n">
-        <v>64911.44187321067</v>
+        <v>85262.85485324256</v>
       </c>
       <c r="AE9" t="n">
-        <v>88814.69846159979</v>
+        <v>116660.3995418397</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.765832963513915e-06</v>
+        <v>9.920007258094924e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.603395061728395</v>
       </c>
       <c r="AH9" t="n">
-        <v>80338.34829265828</v>
+        <v>105526.4947434959</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.63961128272314</v>
+        <v>65.87456224856547</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.55086198520448</v>
+        <v>90.13248224903178</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.1993411220723</v>
+        <v>81.53036464493931</v>
       </c>
       <c r="AD2" t="n">
-        <v>48639.61128272315</v>
+        <v>65874.56224856547</v>
       </c>
       <c r="AE2" t="n">
-        <v>66550.86198520448</v>
+        <v>90132.48224903177</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.825745777969662e-06</v>
+        <v>1.368330210188237e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.641975308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>60199.34112207231</v>
+        <v>81530.36464493931</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.8375951703704</v>
+        <v>66.07254613621272</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.82175227471598</v>
+        <v>90.40337253854328</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.44437802254983</v>
+        <v>81.77540154541684</v>
       </c>
       <c r="AD3" t="n">
-        <v>48837.5951703704</v>
+        <v>66072.54613621272</v>
       </c>
       <c r="AE3" t="n">
-        <v>66821.75227471598</v>
+        <v>90403.37253854328</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.812729874870034e-06</v>
+        <v>1.36572096366728e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.649691358024692</v>
       </c>
       <c r="AH3" t="n">
-        <v>60444.37802254983</v>
+        <v>81775.40154541684</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.32890210512883</v>
+        <v>118.6863164835017</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.2237447732124</v>
+        <v>162.3918542833966</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.5588821141921</v>
+        <v>146.893403629033</v>
       </c>
       <c r="AD2" t="n">
-        <v>89328.90210512883</v>
+        <v>118686.3164835017</v>
       </c>
       <c r="AE2" t="n">
-        <v>122223.7447732124</v>
+        <v>162391.8542833966</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.487449255950634e-06</v>
+        <v>7.947606080731113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.810956790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>110558.8821141922</v>
+        <v>146893.403629033</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.48857370608553</v>
+        <v>96.76064722988674</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.3408439303697</v>
+        <v>132.3921863183564</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.52796338686615</v>
+        <v>119.7568618697682</v>
       </c>
       <c r="AD3" t="n">
-        <v>67488.57370608553</v>
+        <v>96760.64722988674</v>
       </c>
       <c r="AE3" t="n">
-        <v>92340.84393036969</v>
+        <v>132392.1863183564</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.449849184319655e-06</v>
+        <v>9.652087866827761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.962191358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>83527.96338686615</v>
+        <v>119756.8618697682</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.02242711562874</v>
+        <v>83.65093060425838</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.59830924971375</v>
+        <v>114.4548936713017</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.23804955994129</v>
+        <v>103.5314792577944</v>
       </c>
       <c r="AD4" t="n">
-        <v>64022.42711562874</v>
+        <v>83650.93060425838</v>
       </c>
       <c r="AE4" t="n">
-        <v>87598.30924971375</v>
+        <v>114454.8936713017</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.793655405458635e-06</v>
+        <v>1.026099423163935e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.726851851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>79238.04955994128</v>
+        <v>103531.4792577944</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.20814336393746</v>
+        <v>81.8366468525671</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.11592618010086</v>
+        <v>111.9725106016888</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.99258164644492</v>
+        <v>101.286011344298</v>
       </c>
       <c r="AD5" t="n">
-        <v>62208.14336393746</v>
+        <v>81836.64685256709</v>
       </c>
       <c r="AE5" t="n">
-        <v>85115.92618010085</v>
+        <v>111972.5106016888</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.959345150585857e-06</v>
+        <v>1.055444308215096e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.622685185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>76992.58164644492</v>
+        <v>101286.011344298</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.66903212922464</v>
+        <v>80.29753561785427</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.01004628797233</v>
+        <v>109.8666307095603</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.08768397559949</v>
+        <v>99.38111367345259</v>
       </c>
       <c r="AD6" t="n">
-        <v>60669.03212922464</v>
+        <v>80297.53561785427</v>
       </c>
       <c r="AE6" t="n">
-        <v>83010.04628797233</v>
+        <v>109866.6307095603</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.070290108302799e-06</v>
+        <v>1.075093484624353e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.557098765432099</v>
       </c>
       <c r="AH6" t="n">
-        <v>75087.68397559949</v>
+        <v>99381.11367345259</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.72252302171983</v>
+        <v>80.35102651034946</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.08323488693586</v>
+        <v>109.9398193085238</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.1538875573988</v>
+        <v>99.44731725525189</v>
       </c>
       <c r="AD7" t="n">
-        <v>60722.52302171983</v>
+        <v>80351.02651034946</v>
       </c>
       <c r="AE7" t="n">
-        <v>83083.23488693585</v>
+        <v>109939.8193085238</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.067547271305761e-06</v>
+        <v>1.074607707811006e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.560956790123457</v>
       </c>
       <c r="AH7" t="n">
-        <v>75153.8875573988</v>
+        <v>99447.3172552519</v>
       </c>
     </row>
   </sheetData>
@@ -9544,28 +9544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.9531124585366</v>
+        <v>127.9575853547387</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.7062110209043</v>
+        <v>175.0772133725322</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.6093375480785</v>
+        <v>158.3680898507188</v>
       </c>
       <c r="AD2" t="n">
-        <v>107953.1124585366</v>
+        <v>127957.5853547387</v>
       </c>
       <c r="AE2" t="n">
-        <v>147706.2110209043</v>
+        <v>175077.2133725322</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.103492035847138e-06</v>
+        <v>7.156131796857748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.158179012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>133609.3375480785</v>
+        <v>158368.0898507188</v>
       </c>
     </row>
     <row r="3">
@@ -9650,28 +9650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.28582965174475</v>
+        <v>102.2049616933752</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.5871023240699</v>
+        <v>139.8413375535002</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.8419472952801</v>
+        <v>126.4950765659816</v>
       </c>
       <c r="AD3" t="n">
-        <v>82285.82965174475</v>
+        <v>102204.9616933752</v>
       </c>
       <c r="AE3" t="n">
-        <v>112587.1023240699</v>
+        <v>139841.3375535001</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.138154050258666e-06</v>
+        <v>8.960492004127576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.116512345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>101841.9472952801</v>
+        <v>126495.0765659816</v>
       </c>
     </row>
     <row r="4">
@@ -9756,28 +9756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.00774475077937</v>
+        <v>88.01212813843038</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.05119665792942</v>
+        <v>120.422076540009</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.17052104709411</v>
+        <v>108.9291625685079</v>
       </c>
       <c r="AD4" t="n">
-        <v>68007.74475077937</v>
+        <v>88012.12813843039</v>
       </c>
       <c r="AE4" t="n">
-        <v>93051.19665792942</v>
+        <v>120422.076540009</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.516259532758168e-06</v>
+        <v>9.619874949736812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.834876543209876</v>
       </c>
       <c r="AH4" t="n">
-        <v>84170.52104709411</v>
+        <v>108929.1625685079</v>
       </c>
     </row>
     <row r="5">
@@ -9862,28 +9862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.71980446505621</v>
+        <v>85.72418785270723</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.92073582220293</v>
+        <v>117.2916157042825</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.33882699989898</v>
+        <v>106.0974685213127</v>
       </c>
       <c r="AD5" t="n">
-        <v>65719.80446505621</v>
+        <v>85724.18785270723</v>
       </c>
       <c r="AE5" t="n">
-        <v>89920.73582220293</v>
+        <v>117291.6157042825</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.720339965073318e-06</v>
+        <v>9.975773403553459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.699845679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>81338.82699989899</v>
+        <v>106097.4685213128</v>
       </c>
     </row>
     <row r="6">
@@ -9968,28 +9968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.1478331006267</v>
+        <v>84.15221648827772</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.76989525090947</v>
+        <v>115.140775132989</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.3932596340054</v>
+        <v>104.1519011554192</v>
       </c>
       <c r="AD6" t="n">
-        <v>64147.8331006267</v>
+        <v>84152.21648827771</v>
       </c>
       <c r="AE6" t="n">
-        <v>87769.89525090947</v>
+        <v>115140.775132989</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.82860515544959e-06</v>
+        <v>1.016457844193939e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.630401234567902</v>
       </c>
       <c r="AH6" t="n">
-        <v>79393.2596340054</v>
+        <v>104151.9011554192</v>
       </c>
     </row>
     <row r="7">
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.88785168789454</v>
+        <v>82.89223507554556</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.04593309555335</v>
+        <v>113.4168129776329</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.83383000715983</v>
+        <v>102.5924715285736</v>
       </c>
       <c r="AD7" t="n">
-        <v>62887.85168789454</v>
+        <v>82892.23507554556</v>
       </c>
       <c r="AE7" t="n">
-        <v>86045.93309555335</v>
+        <v>113416.8129776329</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.910105698964857e-06</v>
+        <v>1.030670827326741e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.580246913580247</v>
       </c>
       <c r="AH7" t="n">
-        <v>77833.83000715984</v>
+        <v>102592.4715285736</v>
       </c>
     </row>
     <row r="8">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.9687972551788</v>
+        <v>82.97318064282982</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.15668639177802</v>
+        <v>113.5275662738575</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.93401316423609</v>
+        <v>102.6926546856498</v>
       </c>
       <c r="AD8" t="n">
-        <v>62968.7972551788</v>
+        <v>82973.18064282982</v>
       </c>
       <c r="AE8" t="n">
-        <v>86156.68639177803</v>
+        <v>113527.5662738575</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.896833066710015e-06</v>
+        <v>1.028356196157065e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.587962962962964</v>
       </c>
       <c r="AH8" t="n">
-        <v>77934.01316423609</v>
+        <v>102692.6546856498</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.7776516414418</v>
+        <v>156.7899276129895</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.094531894113</v>
+        <v>214.5268960434189</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.6700713063793</v>
+        <v>194.052750175486</v>
       </c>
       <c r="AD2" t="n">
-        <v>125777.6516414418</v>
+        <v>156789.9276129895</v>
       </c>
       <c r="AE2" t="n">
-        <v>172094.531894113</v>
+        <v>214526.8960434189</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516633536297913e-06</v>
+        <v>5.978043941970225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.806327160493828</v>
       </c>
       <c r="AH2" t="n">
-        <v>155670.0713063793</v>
+        <v>194052.750175486</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.41528112575743</v>
+        <v>112.0048804274353</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.0784205937812</v>
+        <v>153.2500187073359</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.1411116810095</v>
+        <v>138.6240520097018</v>
       </c>
       <c r="AD3" t="n">
-        <v>91415.28112575744</v>
+        <v>112004.8804274353</v>
       </c>
       <c r="AE3" t="n">
-        <v>125078.4205937812</v>
+        <v>153250.0187073359</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.64437660368948e-06</v>
+        <v>7.895132413809206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.398148148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>113141.1116810095</v>
+        <v>138624.0520097018</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.13814411804849</v>
+        <v>106.7277434197263</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.8580089289836</v>
+        <v>146.0296070425382</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.6098059715865</v>
+        <v>132.0927463002787</v>
       </c>
       <c r="AD4" t="n">
-        <v>86138.14411804848</v>
+        <v>106727.7434197263</v>
       </c>
       <c r="AE4" t="n">
-        <v>117858.0089289836</v>
+        <v>146029.6070425382</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.029078705305897e-06</v>
+        <v>8.549100489894916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>106609.8059715865</v>
+        <v>132092.7463002787</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.86362120863298</v>
+        <v>93.53847185633141</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.69522105371139</v>
+        <v>127.9834638199153</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.18044907949158</v>
+        <v>115.7689016588961</v>
       </c>
       <c r="AD5" t="n">
-        <v>72863.62120863298</v>
+        <v>93538.47185633141</v>
       </c>
       <c r="AE5" t="n">
-        <v>99695.22105371139</v>
+        <v>127983.4638199153</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.256713084960581e-06</v>
+        <v>8.936063848525515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.885030864197531</v>
       </c>
       <c r="AH5" t="n">
-        <v>90180.44907949158</v>
+        <v>115768.9016588961</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.35411848769417</v>
+        <v>92.0289691353926</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.62985283636392</v>
+        <v>125.9180956025678</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.3121967060446</v>
+        <v>113.9006492854491</v>
       </c>
       <c r="AD6" t="n">
-        <v>71354.11848769417</v>
+        <v>92028.9691353926</v>
       </c>
       <c r="AE6" t="n">
-        <v>97629.85283636392</v>
+        <v>125918.0956025678</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.361001393779122e-06</v>
+        <v>9.113347061665579e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>88312.1967060446</v>
+        <v>113900.6492854491</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.86856239044288</v>
+        <v>90.54341303814132</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.59724944599616</v>
+        <v>123.8854922122001</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.47358213047612</v>
+        <v>112.0620347098806</v>
       </c>
       <c r="AD7" t="n">
-        <v>69868.56239044288</v>
+        <v>90543.41303814133</v>
       </c>
       <c r="AE7" t="n">
-        <v>95597.24944599616</v>
+        <v>123885.4922122001</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.471165845886424e-06</v>
+        <v>9.300619328947038e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.734567901234568</v>
       </c>
       <c r="AH7" t="n">
-        <v>86473.58213047612</v>
+        <v>112062.0347098806</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.5404787456865</v>
+        <v>89.21532939338493</v>
       </c>
       <c r="AB8" t="n">
-        <v>93.78010681232612</v>
+        <v>122.06834957853</v>
       </c>
       <c r="AC8" t="n">
-        <v>84.82986503938727</v>
+        <v>110.4183176187917</v>
       </c>
       <c r="AD8" t="n">
-        <v>68540.4787456865</v>
+        <v>89215.32939338493</v>
       </c>
       <c r="AE8" t="n">
-        <v>93780.10681232612</v>
+        <v>122068.34957853</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.549408546614243e-06</v>
+        <v>9.433626734541461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>84829.86503938727</v>
+        <v>110418.3176187917</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>67.65628273390753</v>
+        <v>88.33113338160597</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.57031082103576</v>
+        <v>120.8585535872397</v>
       </c>
       <c r="AC9" t="n">
-        <v>83.73553027954593</v>
+        <v>109.3239828589504</v>
       </c>
       <c r="AD9" t="n">
-        <v>67656.28273390753</v>
+        <v>88331.13338160596</v>
       </c>
       <c r="AE9" t="n">
-        <v>92570.31082103576</v>
+        <v>120858.5535872397</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.596311816468674e-06</v>
+        <v>9.513359184715115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.649691358024692</v>
       </c>
       <c r="AH9" t="n">
-        <v>83735.53027954593</v>
+        <v>109323.9828589504</v>
       </c>
     </row>
     <row r="10">
@@ -11325,28 +11325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>66.95683421452536</v>
+        <v>87.63168486222381</v>
       </c>
       <c r="AB10" t="n">
-        <v>91.61329449932667</v>
+        <v>119.9015372655306</v>
       </c>
       <c r="AC10" t="n">
-        <v>82.86985025239962</v>
+        <v>108.4583028318041</v>
       </c>
       <c r="AD10" t="n">
-        <v>66956.83421452536</v>
+        <v>87631.6848622238</v>
       </c>
       <c r="AE10" t="n">
-        <v>91613.29449932667</v>
+        <v>119901.5372655306</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.619287007345449e-06</v>
+        <v>9.55241548649318e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>82869.85025239961</v>
+        <v>108458.3028318041</v>
       </c>
     </row>
     <row r="11">
@@ -11431,28 +11431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>67.0678078618258</v>
+        <v>87.74265850952425</v>
       </c>
       <c r="AB11" t="n">
-        <v>91.76513353937486</v>
+        <v>120.0533763055788</v>
       </c>
       <c r="AC11" t="n">
-        <v>83.00719798757309</v>
+        <v>108.5956505669776</v>
       </c>
       <c r="AD11" t="n">
-        <v>67067.8078618258</v>
+        <v>87742.65850952425</v>
       </c>
       <c r="AE11" t="n">
-        <v>91765.13353937486</v>
+        <v>120053.3763055788</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.619445822028929e-06</v>
+        <v>9.552685460929434e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>83007.19798757309</v>
+        <v>108595.6505669776</v>
       </c>
     </row>
   </sheetData>
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.86907916746839</v>
+        <v>101.1707127443477</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.0168859257495</v>
+        <v>138.4262325135981</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.3261515497115</v>
+        <v>125.215027164975</v>
       </c>
       <c r="AD2" t="n">
-        <v>81869.07916746839</v>
+        <v>101170.7127443477</v>
       </c>
       <c r="AE2" t="n">
-        <v>112016.8859257495</v>
+        <v>138426.2325135981</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.891006196575489e-06</v>
+        <v>8.819641579850571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.517746913580248</v>
       </c>
       <c r="AH2" t="n">
-        <v>101326.1515497115</v>
+        <v>125215.027164975</v>
       </c>
     </row>
     <row r="3">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.94995216401686</v>
+        <v>82.16624488632458</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.13090170666351</v>
+        <v>112.4234811723145</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.91068933327986</v>
+        <v>101.6939419166046</v>
       </c>
       <c r="AD3" t="n">
-        <v>62949.95216401685</v>
+        <v>82166.24488632458</v>
       </c>
       <c r="AE3" t="n">
-        <v>86130.90170666351</v>
+        <v>112423.4811723145</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.792452754977594e-06</v>
+        <v>1.044516304291129e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.815586419753087</v>
       </c>
       <c r="AH3" t="n">
-        <v>77910.68933327986</v>
+        <v>101693.9419166046</v>
       </c>
     </row>
     <row r="4">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.08078862108404</v>
+        <v>79.29708134339177</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.20518556866277</v>
+        <v>108.4977650343138</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.35963803371145</v>
+        <v>98.14289061703617</v>
       </c>
       <c r="AD4" t="n">
-        <v>60080.78862108404</v>
+        <v>79297.08134339176</v>
       </c>
       <c r="AE4" t="n">
-        <v>82205.18556866277</v>
+        <v>108497.7650343138</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.086196045831749e-06</v>
+        <v>1.097485170771677e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.630401234567902</v>
       </c>
       <c r="AH4" t="n">
-        <v>74359.63803371145</v>
+        <v>98142.89061703617</v>
       </c>
     </row>
     <row r="5">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.38132489047949</v>
+        <v>77.5976176127872</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.87990431740245</v>
+        <v>106.1724837830535</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.25627836151796</v>
+        <v>96.03953094484267</v>
       </c>
       <c r="AD5" t="n">
-        <v>58381.32489047949</v>
+        <v>77597.6176127872</v>
       </c>
       <c r="AE5" t="n">
-        <v>79879.90431740246</v>
+        <v>106172.4837830535</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.230175502491399e-06</v>
+        <v>1.123448073936446e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.545524691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>72256.27836151795</v>
+        <v>96039.53094484267</v>
       </c>
     </row>
     <row r="6">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.39792932517815</v>
+        <v>77.61422204748588</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.90262323749313</v>
+        <v>106.1952027031442</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.27682901976138</v>
+        <v>96.0600816030861</v>
       </c>
       <c r="AD6" t="n">
-        <v>58397.92932517816</v>
+        <v>77614.22204748588</v>
       </c>
       <c r="AE6" t="n">
-        <v>79902.62323749313</v>
+        <v>106195.2027031442</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.24964766448992e-06</v>
+        <v>1.126959365533909e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.533950617283951</v>
       </c>
       <c r="AH6" t="n">
-        <v>72276.82901976138</v>
+        <v>96060.0816030861</v>
       </c>
     </row>
   </sheetData>
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.47525966116807</v>
+        <v>89.89344931409973</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.79560353428221</v>
+        <v>122.996183170591</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.46212838998618</v>
+        <v>111.2576000750494</v>
       </c>
       <c r="AD2" t="n">
-        <v>71475.25966116806</v>
+        <v>89893.44931409972</v>
       </c>
       <c r="AE2" t="n">
-        <v>97795.60353428221</v>
+        <v>122996.183170591</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.586623290091662e-06</v>
+        <v>1.042285333574704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.12037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>88462.12838998617</v>
+        <v>111257.6000750494</v>
       </c>
     </row>
     <row r="3">
@@ -12555,28 +12555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.95662332741856</v>
+        <v>74.4600643263708</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.56232066854081</v>
+        <v>101.8795449574989</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.25532023984469</v>
+        <v>92.15630417562011</v>
       </c>
       <c r="AD3" t="n">
-        <v>55956.62332741857</v>
+        <v>74460.0643263708</v>
       </c>
       <c r="AE3" t="n">
-        <v>76562.32066854081</v>
+        <v>101879.5449574988</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.371178609521376e-06</v>
+        <v>1.188658278439255e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>69255.32023984469</v>
+        <v>92156.30417562011</v>
       </c>
     </row>
     <row r="4">
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.68929007343111</v>
+        <v>73.19273107238335</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.82829939963885</v>
+        <v>100.1455236885969</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.68679152713207</v>
+        <v>90.58777546290747</v>
       </c>
       <c r="AD4" t="n">
-        <v>54689.29007343111</v>
+        <v>73192.73107238335</v>
       </c>
       <c r="AE4" t="n">
-        <v>74828.29939963885</v>
+        <v>100145.5236885969</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.513998580224344e-06</v>
+        <v>1.215303919835783e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.533950617283951</v>
       </c>
       <c r="AH4" t="n">
-        <v>67686.79152713207</v>
+        <v>90587.77546290748</v>
       </c>
     </row>
   </sheetData>
@@ -22691,28 +22691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.30202553963014</v>
+        <v>73.2356708326153</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.66667109647288</v>
+        <v>100.2042757629148</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.4451502058826</v>
+        <v>90.6409203217115</v>
       </c>
       <c r="AD2" t="n">
-        <v>55302.02553963014</v>
+        <v>73235.6708326153</v>
       </c>
       <c r="AE2" t="n">
-        <v>75666.67109647288</v>
+        <v>100204.2757629148</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.191902172612029e-06</v>
+        <v>1.190725749600437e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.846450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>68445.1502058826</v>
+        <v>90640.9203217115</v>
       </c>
     </row>
     <row r="3">
@@ -22797,28 +22797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.90750987201801</v>
+        <v>69.84115516500317</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.02214500458626</v>
+        <v>95.55974967102813</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.24389116557084</v>
+        <v>86.43966128139975</v>
       </c>
       <c r="AD3" t="n">
-        <v>51907.50987201801</v>
+        <v>69841.15516500318</v>
       </c>
       <c r="AE3" t="n">
-        <v>71022.14500458626</v>
+        <v>95559.74967102813</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.69677541273142e-06</v>
+        <v>1.287814745927516e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.557098765432099</v>
       </c>
       <c r="AH3" t="n">
-        <v>64243.89116557084</v>
+        <v>86439.66128139975</v>
       </c>
     </row>
   </sheetData>
@@ -23094,28 +23094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.7536224473008</v>
+        <v>63.55775594750584</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.97036885662573</v>
+        <v>86.96252565764318</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.86512663593943</v>
+        <v>78.66294426156985</v>
       </c>
       <c r="AD2" t="n">
-        <v>46753.6224473008</v>
+        <v>63557.75594750584</v>
       </c>
       <c r="AE2" t="n">
-        <v>63970.36885662573</v>
+        <v>86962.52565764319</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.806887701313214e-06</v>
+        <v>1.403988195332103e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.753858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>57865.12663593944</v>
+        <v>78662.94426156985</v>
       </c>
     </row>
   </sheetData>
@@ -23391,28 +23391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.09359499593435</v>
+        <v>122.7389320519245</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3747636729385</v>
+        <v>167.9368216928906</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.2182949996305</v>
+        <v>151.9091671313773</v>
       </c>
       <c r="AD2" t="n">
-        <v>93093.59499593436</v>
+        <v>122738.9320519245</v>
       </c>
       <c r="AE2" t="n">
-        <v>127374.7636729385</v>
+        <v>167936.8216928906</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.309915893153465e-06</v>
+        <v>7.572352207675079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.957561728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>115218.2949996305</v>
+        <v>151909.1671313773</v>
       </c>
     </row>
     <row r="3">
@@ -23497,28 +23497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.81933849131244</v>
+        <v>99.55453908566636</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.2123403044578</v>
+        <v>136.2149124132417</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.78926782631051</v>
+        <v>123.2147523513887</v>
       </c>
       <c r="AD3" t="n">
-        <v>79819.33849131243</v>
+        <v>99554.53908566636</v>
       </c>
       <c r="AE3" t="n">
-        <v>109212.3403044578</v>
+        <v>136214.9124132417</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.294749899070431e-06</v>
+        <v>9.302666706560195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.035493827160495</v>
       </c>
       <c r="AH3" t="n">
-        <v>98789.2678263105</v>
+        <v>123214.7523513887</v>
       </c>
     </row>
     <row r="4">
@@ -23603,28 +23603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.02356744533873</v>
+        <v>85.84401938571324</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.33635773290216</v>
+        <v>117.4555744943353</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.71478253877024</v>
+        <v>106.2457793145606</v>
       </c>
       <c r="AD4" t="n">
-        <v>66023.56744533873</v>
+        <v>85844.01938571324</v>
       </c>
       <c r="AE4" t="n">
-        <v>90336.35773290216</v>
+        <v>117455.5744943353</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.653143285553516e-06</v>
+        <v>9.932349748789044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.780864197530864</v>
       </c>
       <c r="AH4" t="n">
-        <v>81714.78253877023</v>
+        <v>106245.7793145606</v>
       </c>
     </row>
     <row r="5">
@@ -23709,28 +23709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.96030731540237</v>
+        <v>83.78075925577689</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.51331419851192</v>
+        <v>114.6325309599451</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.1611663171348</v>
+        <v>103.6921630929252</v>
       </c>
       <c r="AD5" t="n">
-        <v>63960.30731540237</v>
+        <v>83780.75925577688</v>
       </c>
       <c r="AE5" t="n">
-        <v>87513.31419851191</v>
+        <v>114632.5309599451</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.824529551052536e-06</v>
+        <v>1.023346865646386e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.668981481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>79161.1663171348</v>
+        <v>103692.1630929252</v>
       </c>
     </row>
     <row r="6">
@@ -23815,28 +23815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.51912110558976</v>
+        <v>82.33957304596427</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.54141964559901</v>
+        <v>112.6606364070322</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.3774666127799</v>
+        <v>101.9084633885703</v>
       </c>
       <c r="AD6" t="n">
-        <v>62519.12110558976</v>
+        <v>82339.57304596427</v>
       </c>
       <c r="AE6" t="n">
-        <v>85541.419645599</v>
+        <v>112660.6364070322</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.926840615169114e-06</v>
+        <v>1.041322516017277e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.607253086419753</v>
       </c>
       <c r="AH6" t="n">
-        <v>77377.4666127799</v>
+        <v>101908.4633885703</v>
       </c>
     </row>
     <row r="7">
@@ -23921,28 +23921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.50816750499138</v>
+        <v>81.32861944536589</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.15818832913585</v>
+        <v>111.277405090569</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.1262489517822</v>
+        <v>100.6572457275726</v>
       </c>
       <c r="AD7" t="n">
-        <v>61508.16750499138</v>
+        <v>81328.61944536588</v>
       </c>
       <c r="AE7" t="n">
-        <v>84158.18832913585</v>
+        <v>111277.405090569</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.008268478867745e-06</v>
+        <v>1.055629070454316e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.557098765432099</v>
       </c>
       <c r="AH7" t="n">
-        <v>76126.2489517822</v>
+        <v>100657.2457275726</v>
       </c>
     </row>
   </sheetData>
@@ -24218,28 +24218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.8968881184427</v>
+        <v>151.670608435689</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.4164559178592</v>
+        <v>207.5224176966173</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.6293415285585</v>
+        <v>187.7167694112539</v>
       </c>
       <c r="AD2" t="n">
-        <v>120896.8881184427</v>
+        <v>151670.608435689</v>
       </c>
       <c r="AE2" t="n">
-        <v>165416.4559178592</v>
+        <v>207522.4176966173</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.657925839941137e-06</v>
+        <v>6.254645538281101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.628858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>149629.3415285585</v>
+        <v>187716.7694112539</v>
       </c>
     </row>
     <row r="3">
@@ -24324,28 +24324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.22037180878675</v>
+        <v>109.650934007597</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.0752488337384</v>
+        <v>150.029245366928</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.4245584187663</v>
+        <v>135.7106647565176</v>
       </c>
       <c r="AD3" t="n">
-        <v>89220.37180878675</v>
+        <v>109650.934007597</v>
       </c>
       <c r="AE3" t="n">
-        <v>122075.2488337384</v>
+        <v>150029.245366928</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.752026148446763e-06</v>
+        <v>8.125435136666399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.332561728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>110424.5584187662</v>
+        <v>135710.6647565176</v>
       </c>
     </row>
     <row r="4">
@@ -24430,28 +24430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.69508412262098</v>
+        <v>104.298122730724</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.8328652941842</v>
+        <v>142.705292828547</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.20951815034769</v>
+        <v>129.0856999691655</v>
       </c>
       <c r="AD4" t="n">
-        <v>73695.08412262099</v>
+        <v>104298.122730724</v>
       </c>
       <c r="AE4" t="n">
-        <v>100832.8652941842</v>
+        <v>142705.292828547</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.15028357157017e-06</v>
+        <v>8.806410947446157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.996913580246913</v>
       </c>
       <c r="AH4" t="n">
-        <v>91209.51815034769</v>
+        <v>129085.6999691655</v>
       </c>
     </row>
     <row r="5">
@@ -24536,28 +24536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.38779702627556</v>
+        <v>91.90361057110641</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.67593329864324</v>
+        <v>125.746574484482</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.35387931367833</v>
+        <v>113.7454979021419</v>
       </c>
       <c r="AD5" t="n">
-        <v>71387.79702627557</v>
+        <v>91903.61057110642</v>
       </c>
       <c r="AE5" t="n">
-        <v>97675.93329864324</v>
+        <v>125746.574484482</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.337855825270163e-06</v>
+        <v>9.127138597771861e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.858024691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>88353.87931367834</v>
+        <v>113745.4979021419</v>
       </c>
     </row>
     <row r="6">
@@ -24642,28 +24642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.62523029728463</v>
+        <v>90.14104384211548</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.26431174108293</v>
+        <v>123.3349529269217</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.17241953283869</v>
+        <v>111.5640381213023</v>
       </c>
       <c r="AD6" t="n">
-        <v>69625.23029728464</v>
+        <v>90141.04384211548</v>
       </c>
       <c r="AE6" t="n">
-        <v>95264.31174108293</v>
+        <v>123334.9529269217</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.480056304455361e-06</v>
+        <v>9.370285570016503e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.757716049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>86172.41953283868</v>
+        <v>111564.0381213023</v>
       </c>
     </row>
     <row r="7">
@@ -24748,28 +24748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>68.28344030335836</v>
+        <v>88.7992538481892</v>
       </c>
       <c r="AB7" t="n">
-        <v>93.42841547579719</v>
+        <v>121.4990566616359</v>
       </c>
       <c r="AC7" t="n">
-        <v>84.51173863041465</v>
+        <v>109.9033572188782</v>
       </c>
       <c r="AD7" t="n">
-        <v>68283.44030335837</v>
+        <v>88799.2538481892</v>
       </c>
       <c r="AE7" t="n">
-        <v>93428.4154757972</v>
+        <v>121499.0566616359</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.56124509155772e-06</v>
+        <v>9.509109348088613e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>84511.73863041465</v>
+        <v>109903.3572188782</v>
       </c>
     </row>
     <row r="8">
@@ -24854,28 +24854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>67.18834610258118</v>
+        <v>87.70415964741201</v>
       </c>
       <c r="AB8" t="n">
-        <v>91.93005927814816</v>
+        <v>120.0007004639869</v>
       </c>
       <c r="AC8" t="n">
-        <v>83.15638344531263</v>
+        <v>108.5480020337762</v>
       </c>
       <c r="AD8" t="n">
-        <v>67188.34610258118</v>
+        <v>87704.15964741202</v>
       </c>
       <c r="AE8" t="n">
-        <v>91930.05927814817</v>
+        <v>120000.7004639869</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.629516267562925e-06</v>
+        <v>9.625845450754116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>83156.38344531263</v>
+        <v>108548.0020337762</v>
       </c>
     </row>
     <row r="9">
@@ -24960,28 +24960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>66.06817421611768</v>
+        <v>86.58398776094853</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.39739068459373</v>
+        <v>118.4680318704325</v>
       </c>
       <c r="AC9" t="n">
-        <v>81.76999059121268</v>
+        <v>107.1616091796762</v>
       </c>
       <c r="AD9" t="n">
-        <v>66068.17421611768</v>
+        <v>86583.98776094853</v>
       </c>
       <c r="AE9" t="n">
-        <v>90397.39068459373</v>
+        <v>118468.0318704325</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.669016400669925e-06</v>
+        <v>9.693386276377628e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>81769.99059121267</v>
+        <v>107161.6091796762</v>
       </c>
     </row>
     <row r="10">
@@ -25066,28 +25066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>65.94465060687864</v>
+        <v>86.46046415170949</v>
       </c>
       <c r="AB10" t="n">
-        <v>90.22838023295594</v>
+        <v>118.2990214187947</v>
       </c>
       <c r="AC10" t="n">
-        <v>81.61711025987147</v>
+        <v>107.008728848335</v>
       </c>
       <c r="AD10" t="n">
-        <v>65944.65060687864</v>
+        <v>86460.46415170949</v>
       </c>
       <c r="AE10" t="n">
-        <v>90228.38023295594</v>
+        <v>118299.0214187947</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.673179928213635e-06</v>
+        <v>9.700505444483888e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.630401234567902</v>
       </c>
       <c r="AH10" t="n">
-        <v>81617.11025987146</v>
+        <v>107008.728848335</v>
       </c>
     </row>
   </sheetData>
@@ -25363,28 +25363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.61005910237571</v>
+        <v>68.80066468984943</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.98340385584576</v>
+        <v>94.13610469972342</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.1134088212017</v>
+        <v>85.15188698805764</v>
       </c>
       <c r="AD2" t="n">
-        <v>52610.05910237572</v>
+        <v>68800.66468984942</v>
       </c>
       <c r="AE2" t="n">
-        <v>71983.40385584577</v>
+        <v>94136.10469972342</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.582901221989525e-06</v>
+        <v>1.411018934023487e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.020061728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>65113.40882120171</v>
+        <v>85151.88698805764</v>
       </c>
     </row>
   </sheetData>
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.96373590328203</v>
+        <v>93.63497250742</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5686906294502</v>
+        <v>128.1155002680429</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.77967875186263</v>
+        <v>115.8883367337287</v>
       </c>
       <c r="AD2" t="n">
-        <v>74963.73590328202</v>
+        <v>93634.97250742</v>
       </c>
       <c r="AE2" t="n">
-        <v>102568.6906294502</v>
+        <v>128115.5002680429</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.333474172456794e-06</v>
+        <v>9.826566340471422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.251543209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>92779.67875186264</v>
+        <v>115888.3367337287</v>
       </c>
     </row>
     <row r="3">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.34920544684685</v>
+        <v>77.10569339700538</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.83595707761445</v>
+        <v>105.4994113688564</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.21652538461497</v>
+        <v>95.43069561719327</v>
       </c>
       <c r="AD3" t="n">
-        <v>58349.20544684686</v>
+        <v>77105.69339700538</v>
       </c>
       <c r="AE3" t="n">
-        <v>79835.95707761445</v>
+        <v>105499.4113688564</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.15738670416816e-06</v>
+        <v>1.134456959497637e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.684413580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>72216.52538461497</v>
+        <v>95430.69561719327</v>
       </c>
     </row>
     <row r="4">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.96316159062821</v>
+        <v>74.71964954078675</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.57126660871204</v>
+        <v>102.234720899954</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.2634123920417</v>
+        <v>92.47758262462</v>
       </c>
       <c r="AD4" t="n">
-        <v>55963.16159062821</v>
+        <v>74719.64954078675</v>
       </c>
       <c r="AE4" t="n">
-        <v>76571.26660871203</v>
+        <v>102234.720899954</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.414172286652301e-06</v>
+        <v>1.181767970669079e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.537808641975309</v>
       </c>
       <c r="AH4" t="n">
-        <v>69263.4123920417</v>
+        <v>92477.58262462</v>
       </c>
     </row>
     <row r="5">
@@ -25978,28 +25978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.01894717153181</v>
+        <v>74.77543512169035</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.64759490159044</v>
+        <v>102.3110491928324</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.33245601977525</v>
+        <v>92.54662625235355</v>
       </c>
       <c r="AD5" t="n">
-        <v>56018.94717153181</v>
+        <v>74775.43512169035</v>
       </c>
       <c r="AE5" t="n">
-        <v>76647.59490159043</v>
+        <v>102311.0491928324</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.41946319837931e-06</v>
+        <v>1.1827427854597e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.533950617283951</v>
       </c>
       <c r="AH5" t="n">
-        <v>69332.45601977524</v>
+        <v>92546.62625235354</v>
       </c>
     </row>
   </sheetData>
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.50078888221636</v>
+        <v>114.5567407503515</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.98595137719</v>
+        <v>156.7415865812799</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.8209763685953</v>
+        <v>141.782389546204</v>
       </c>
       <c r="AD2" t="n">
-        <v>85500.78888221635</v>
+        <v>114556.7407503515</v>
       </c>
       <c r="AE2" t="n">
-        <v>116985.95137719</v>
+        <v>156741.5865812799</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.686492802673881e-06</v>
+        <v>8.372077379790227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.660493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>105820.9763685953</v>
+        <v>141782.389546204</v>
       </c>
     </row>
     <row r="3">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.27205503052197</v>
+        <v>84.69958351232646</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.30810529256257</v>
+        <v>115.8897068434209</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.78466506817495</v>
+        <v>104.8293558745399</v>
       </c>
       <c r="AD3" t="n">
-        <v>65272.05503052197</v>
+        <v>84699.58351232646</v>
       </c>
       <c r="AE3" t="n">
-        <v>89308.10529256257</v>
+        <v>115889.7068434209</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.613376934758272e-06</v>
+        <v>1.002788823934874e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>80784.66506817495</v>
+        <v>104829.3558745399</v>
       </c>
     </row>
     <row r="4">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.05222408674963</v>
+        <v>81.47975256855412</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.90259054637951</v>
+        <v>111.4841920972379</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.79960646618743</v>
+        <v>100.8442972725524</v>
       </c>
       <c r="AD4" t="n">
-        <v>62052.22408674962</v>
+        <v>81479.75256855412</v>
       </c>
       <c r="AE4" t="n">
-        <v>84902.59054637952</v>
+        <v>111484.1920972379</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.943129435584094e-06</v>
+        <v>1.061696701730354e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.67283950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>76799.60646618743</v>
+        <v>100844.2972725524</v>
       </c>
     </row>
     <row r="5">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.06278830882918</v>
+        <v>79.49031679063367</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.18055674731795</v>
+        <v>108.7621582981763</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.337359752509</v>
+        <v>98.38205055887397</v>
       </c>
       <c r="AD5" t="n">
-        <v>60062.78830882918</v>
+        <v>79490.31679063367</v>
       </c>
       <c r="AE5" t="n">
-        <v>82180.55674731795</v>
+        <v>108762.1582981763</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.118589914911256e-06</v>
+        <v>1.093041435881743e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.568672839506173</v>
       </c>
       <c r="AH5" t="n">
-        <v>74337.359752509</v>
+        <v>98382.05055887398</v>
       </c>
     </row>
     <row r="6">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.52910407206262</v>
+        <v>78.95663255386711</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.45034643008746</v>
+        <v>108.0319479809458</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.67683968309814</v>
+        <v>97.72153048946312</v>
       </c>
       <c r="AD6" t="n">
-        <v>59529.10407206262</v>
+        <v>78956.63255386711</v>
       </c>
       <c r="AE6" t="n">
-        <v>81450.34643008746</v>
+        <v>108031.9479809458</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.147172992995197e-06</v>
+        <v>1.09814759418705e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.553240740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>73676.83968309814</v>
+        <v>97721.53048946313</v>
       </c>
     </row>
   </sheetData>
